--- a/outputs/countries_combined.xlsx
+++ b/outputs/countries_combined.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>country</t>
         </is>
       </c>
     </row>
